--- a/data/metadaten/metadaten_manuskripte.xlsx
+++ b/data/metadaten/metadaten_manuskripte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annab\OneDrive\Desktop\Kralik\mathilde_kralik\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annab\OneDrive\Desktop\Kralik\mathilde_kralik\data\metadaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AE082C-DF5C-4550-AD07-E0F19AC8B40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E5E85-3DB3-4F28-A972-B7B5C0E25B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{54D9A352-6290-4C1B-B601-D219E5BFDC31}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Titel</t>
   </si>
   <si>
-    <t>Verfassser:in</t>
-  </si>
-  <si>
     <t>Dokument</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Familie, Bildung, Musik, Kompositionen, Vorbilder</t>
+  </si>
+  <si>
+    <t>Verfasser:in</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,30 +462,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
